--- a/BG_Paper/data/FCE_SI_data_xls_11_July_2023_Sturges_edits.xlsx
+++ b/BG_Paper/data/FCE_SI_data_xls_11_July_2023_Sturges_edits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17035\Desktop\New GitHub\BG_Paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17035\Desktop\New GitHub\Brown-vs-Green\BG_Paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E6C74C-B253-40CE-A5A8-52E5D80E8294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3821553-1C6F-483F-B5B8-F0D6531D1BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="765" windowWidth="24450" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38057,7 +38057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -38601,8 +38601,8 @@
   <dimension ref="A1:Y984"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A936" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C965" activeCellId="2" sqref="A967:XFD967 A968:XFD968 A965:XFD965"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -98696,7 +98696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B51579-D869-4099-BF83-BC624C34CAFB}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>

--- a/BG_Paper/data/FCE_SI_data_xls_11_July_2023_Sturges_edits.xlsx
+++ b/BG_Paper/data/FCE_SI_data_xls_11_July_2023_Sturges_edits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17035\Desktop\New GitHub\Brown-vs-Green\BG_Paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3821553-1C6F-483F-B5B8-F0D6531D1BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5761EB8D-A450-4353-92C1-E6682C3841D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10017,7 +10017,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10218,6 +10218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10451,7 +10457,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10513,6 +10519,13 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -36376,7 +36389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:K17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="26">
     <pivotField showAll="0"/>
@@ -38600,9 +38613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y984"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A936" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H999" sqref="H999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -98696,8 +98709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B51579-D869-4099-BF83-BC624C34CAFB}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V19" sqref="V19:AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -98834,19 +98847,19 @@
       <c r="M3" s="29">
         <v>9.4601500000000005</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="37" t="s">
         <v>3159</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="33" t="s">
         <v>3158</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="33" t="s">
         <v>3081</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="33">
         <v>6.22</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="36">
         <v>3.4388888889000002</v>
       </c>
       <c r="V3" s="28" t="s">
@@ -98867,19 +98880,19 @@
       <c r="AA3" s="29">
         <v>2.1879636364000001</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="33" t="s">
         <v>3204</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="33" t="s">
         <v>3034</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="33">
         <v>15.88</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="36">
         <v>0.51836470588000005</v>
       </c>
     </row>
@@ -98911,19 +98924,19 @@
       <c r="M4" s="29">
         <v>6.11625</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="37" t="s">
         <v>3160</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="33" t="s">
         <v>3117</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="33" t="s">
         <v>3101</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="33">
         <v>5.73</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="36">
         <v>3.9172799999999999</v>
       </c>
       <c r="V4" s="28" t="s">
@@ -98944,19 +98957,19 @@
       <c r="AA4" s="29">
         <v>1.9370400000000001</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" s="33" t="s">
         <v>3035</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="33" t="s">
         <v>3036</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="33">
         <v>14.61</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="36">
         <v>0.44196000000000002</v>
       </c>
     </row>
@@ -99021,19 +99034,19 @@
       <c r="AA5" s="29">
         <v>2.1814571428999998</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="33" t="s">
         <v>3037</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" s="33" t="s">
         <v>3038</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="33">
         <v>10.44</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="36">
         <v>0.48493846153999998</v>
       </c>
     </row>
@@ -99065,19 +99078,19 @@
       <c r="M6" s="29">
         <v>8.3072499999999998</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="37" t="s">
         <v>3162</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="33" t="s">
         <v>3119</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="33" t="s">
         <v>3083</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="33">
         <v>5.31</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="36">
         <v>1.6474823529</v>
       </c>
       <c r="V6" s="28" t="s">
@@ -99098,19 +99111,19 @@
       <c r="AA6" s="29">
         <v>2.5230999999999999</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="33" t="s">
         <v>3039</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="33" t="s">
         <v>3040</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="33">
         <v>11.76</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="36">
         <v>0.34111935484</v>
       </c>
     </row>
@@ -99142,19 +99155,19 @@
       <c r="M7" s="29">
         <v>9.8888999999999996</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="37" t="s">
         <v>3163</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="33" t="s">
         <v>3120</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="33" t="s">
         <v>3093</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="33">
         <v>4.29</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="36">
         <v>0.52964</v>
       </c>
       <c r="V7" s="28" t="s">
@@ -99175,19 +99188,19 @@
       <c r="AA7" s="29">
         <v>1.2337481481000001</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AD7" s="33" t="s">
         <v>3041</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="33" t="s">
         <v>3042</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="33">
         <v>-5.68</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="36">
         <v>0.35359701493000001</v>
       </c>
     </row>
@@ -99217,19 +99230,19 @@
       <c r="M8" s="29">
         <v>9.0947499999999994</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="37" t="s">
         <v>3164</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="33" t="s">
         <v>3121</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="33" t="s">
         <v>3091</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="33">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="36">
         <v>1.0946947368</v>
       </c>
       <c r="V8" s="28" t="s">
@@ -99250,19 +99263,19 @@
       <c r="AA8" s="29">
         <v>1.0410962962999999</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AD8" s="33" t="s">
         <v>3043</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AE8" s="33" t="s">
         <v>3044</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" s="33">
         <v>-9.01</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AG8" s="36">
         <v>0.33</v>
       </c>
     </row>
@@ -99294,19 +99307,19 @@
       <c r="M9" s="29">
         <v>13.317500000000001</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="37" t="s">
         <v>3165</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="33" t="s">
         <v>3122</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="33" t="s">
         <v>3095</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="33">
         <v>4.9400000000000004</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="36">
         <v>0.70298666666999998</v>
       </c>
       <c r="V9" s="28" t="s">
@@ -99327,19 +99340,19 @@
       <c r="AA9" s="29">
         <v>1.1060615385000001</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AD9" s="33" t="s">
         <v>3045</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AE9" s="33" t="s">
         <v>3046</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF9" s="33">
         <v>-5.27</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="36">
         <v>0.50041999999999998</v>
       </c>
     </row>
@@ -99371,19 +99384,19 @@
       <c r="M10" s="29">
         <v>7.3060909090999999</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="37" t="s">
         <v>3166</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="33" t="s">
         <v>3123</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="33" t="s">
         <v>3085</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="33">
         <v>6.77</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="36">
         <v>1.20885</v>
       </c>
       <c r="V10" s="28" t="s">
@@ -99404,19 +99417,19 @@
       <c r="AA10" s="29">
         <v>1.1689185184999999</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AD10" s="33" t="s">
         <v>3047</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AE10" s="33" t="s">
         <v>3048</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AF10" s="33">
         <v>-10.4</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="36">
         <v>0.38254285714000003</v>
       </c>
     </row>
@@ -99448,19 +99461,19 @@
       <c r="M11" s="29">
         <v>6.0853333333000004</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="37" t="s">
         <v>3167</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="33" t="s">
         <v>3124</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="33" t="s">
         <v>3077</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="33">
         <v>8.1199999999999992</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="36">
         <v>0.83675555556000003</v>
       </c>
       <c r="V11" s="28" t="s">
@@ -99481,19 +99494,19 @@
       <c r="AA11" s="29">
         <v>1.4322153846000001</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AD11" s="33" t="s">
         <v>3049</v>
       </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AE11" s="33" t="s">
         <v>3050</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AF11" s="33">
         <v>-7.46</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="36">
         <v>0.33735454544999999</v>
       </c>
     </row>
@@ -99525,19 +99538,19 @@
       <c r="M12" s="29">
         <v>5.0618749999999997</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="37" t="s">
         <v>3168</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="33" t="s">
         <v>3125</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="33" t="s">
         <v>3099</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="33">
         <v>8.6300000000000008</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="36">
         <v>1.1967466667</v>
       </c>
       <c r="V12" s="28" t="s">
@@ -99558,33 +99571,33 @@
       <c r="AA12" s="29">
         <v>1.0859000000000001</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AD12" s="33" t="s">
         <v>3051</v>
       </c>
-      <c r="AE12" s="5" t="s">
+      <c r="AE12" s="33" t="s">
         <v>3052</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AF12" s="33">
         <v>-6.14</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="36">
         <v>0.18699374999999999</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="33" t="s">
         <v>1058</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="33" t="s">
         <v>1057</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="34">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="35">
         <v>0.13920947867</v>
       </c>
       <c r="I13" s="27" t="s">
@@ -99602,19 +99615,19 @@
       <c r="M13" s="29">
         <v>40.975277777999999</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="37" t="s">
         <v>3169</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="33" t="s">
         <v>3126</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="33" t="s">
         <v>3087</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="33">
         <v>7.18</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="36">
         <v>0.95995555556000001</v>
       </c>
       <c r="V13" s="28" t="s">
@@ -99635,33 +99648,33 @@
       <c r="AA13" s="29">
         <v>1.0218370370000001</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AD13" s="33" t="s">
         <v>3053</v>
       </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AE13" s="33" t="s">
         <v>3054</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AF13" s="33">
         <v>-4.17</v>
       </c>
-      <c r="AG13" s="10">
+      <c r="AG13" s="36">
         <v>0.18607272726999999</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="33" t="s">
         <v>986</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="33" t="s">
         <v>3029</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="34">
         <v>24.95</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="35">
         <v>2.2651699247999999</v>
       </c>
       <c r="I14" s="27" t="s">
@@ -99679,19 +99692,19 @@
       <c r="M14" s="29">
         <v>10.1766875</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="37" t="s">
         <v>3170</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="33" t="s">
         <v>3127</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="33" t="s">
         <v>3089</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="33">
         <v>8</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="36">
         <v>1.2540705882000001</v>
       </c>
       <c r="V14" s="28" t="s">
@@ -99712,33 +99725,33 @@
       <c r="AA14" s="29">
         <v>1.9402370369999999</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AD14" s="33" t="s">
         <v>3055</v>
       </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AE14" s="33" t="s">
         <v>3056</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF14" s="33">
         <v>7.89</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="36">
         <v>0.42888181817999999</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="33" t="s">
         <v>1024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="33" t="s">
         <v>1022</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="34">
         <v>10.88</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="35">
         <v>0.66613999999999995</v>
       </c>
       <c r="I15" s="27" t="s">
@@ -99756,19 +99769,19 @@
       <c r="M15" s="29">
         <v>40.5398</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="37" t="s">
         <v>3171</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="33" t="s">
         <v>3128</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="33" t="s">
         <v>3105</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="33">
         <v>2.94</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="36">
         <v>0.6694</v>
       </c>
       <c r="V15" s="28" t="s">
@@ -99789,33 +99802,33 @@
       <c r="AA15" s="29">
         <v>1.6216285714000001</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AD15" s="33" t="s">
         <v>3057</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AE15" s="33" t="s">
         <v>3058</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AF15" s="33">
         <v>9.0399999999999991</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AG15" s="36">
         <v>0.43646249999999998</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="34">
         <v>17.940000000000001</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="35">
         <v>1.5563</v>
       </c>
       <c r="I16" s="27" t="s">
@@ -99833,19 +99846,19 @@
       <c r="M16" s="29">
         <v>22.099954544999999</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="37" t="s">
         <v>3172</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="33" t="s">
         <v>3129</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="33" t="s">
         <v>3111</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="33">
         <v>2.0699999999999998</v>
       </c>
-      <c r="S16" s="10">
+      <c r="S16" s="36">
         <v>0.56859999999999999</v>
       </c>
       <c r="V16" s="28" t="s">
@@ -99866,33 +99879,33 @@
       <c r="AA16" s="29">
         <v>1.9517</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD16" s="5" t="s">
+      <c r="AD16" s="33" t="s">
         <v>3059</v>
       </c>
-      <c r="AE16" s="5" t="s">
+      <c r="AE16" s="33" t="s">
         <v>3060</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AF16" s="33">
         <v>6.44</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AG16" s="36">
         <v>0.31384545455000001</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="33" t="s">
         <v>834</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="33" t="s">
         <v>832</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="34">
         <v>10.41</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="35">
         <v>0.41003483308999999</v>
       </c>
       <c r="I17" s="27" t="s">
@@ -99910,19 +99923,19 @@
       <c r="M17" s="29">
         <v>7.9481111111000002</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="37" t="s">
         <v>3173</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="33" t="s">
         <v>3130</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="33" t="s">
         <v>3109</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="33">
         <v>2.19</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="36">
         <v>0.74307999999999996</v>
       </c>
       <c r="V17" s="28" t="s">
@@ -99943,33 +99956,33 @@
       <c r="AA17" s="29">
         <v>2.6613000000000002</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AD17" s="33" t="s">
         <v>3061</v>
       </c>
-      <c r="AE17" s="5" t="s">
+      <c r="AE17" s="33" t="s">
         <v>3062</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AF17" s="33">
         <v>19.75</v>
       </c>
-      <c r="AG17" s="10">
+      <c r="AG17" s="36">
         <v>1.5891415385000001</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="34">
         <v>16.75</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="35">
         <v>1.4741561119</v>
       </c>
       <c r="I18" s="27" t="s">
@@ -99987,19 +100000,19 @@
       <c r="M18" s="29">
         <v>8.4724500000000003</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="37" t="s">
         <v>3174</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="33" t="s">
         <v>3131</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="33" t="s">
         <v>3107</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="33">
         <v>3.06</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="36">
         <v>0.86331999999999998</v>
       </c>
       <c r="V18" s="28" t="s">
@@ -100020,33 +100033,33 @@
       <c r="AA18" s="29">
         <v>1.0569999999999999</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AD18" s="33" t="s">
         <v>3063</v>
       </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AE18" s="33" t="s">
         <v>3064</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="33">
         <v>22.45</v>
       </c>
-      <c r="AG18" s="10">
+      <c r="AG18" s="36">
         <v>2.3404941176</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="33" t="s">
         <v>876</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="34">
         <v>7.54</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="35">
         <v>0.74607000000000001</v>
       </c>
       <c r="I19" s="27" t="s">
@@ -100064,19 +100077,19 @@
       <c r="M19" s="29">
         <v>6.7844583332999999</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="37" t="s">
         <v>3175</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="33" t="s">
         <v>3132</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="33" t="s">
         <v>3097</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="33">
         <v>6.17</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="36">
         <v>4.4581866666999996</v>
       </c>
       <c r="V19" s="28" t="s">
@@ -100097,33 +100110,33 @@
       <c r="AA19" s="29">
         <v>1.2983359999999999</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AD19" s="33" t="s">
         <v>3065</v>
       </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AE19" s="33" t="s">
         <v>3066</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AF19" s="33">
         <v>22.05</v>
       </c>
-      <c r="AG19" s="10">
+      <c r="AG19" s="36">
         <v>2.0873718750000001</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="34">
         <v>20.29</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="35">
         <v>0.42909000000000003</v>
       </c>
       <c r="I20" s="27" t="s">
@@ -100141,19 +100154,19 @@
       <c r="M20" s="29">
         <v>6.3131250000000003</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="37" t="s">
         <v>3176</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="33" t="s">
         <v>3133</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="33" t="s">
         <v>3103</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="33">
         <v>3.97</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="36">
         <v>1.6340235294000001</v>
       </c>
       <c r="V20" s="28" t="s">
@@ -100174,19 +100187,19 @@
       <c r="AA20" s="29">
         <v>0.94386206897000002</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC20" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD20" s="5" t="s">
+      <c r="AD20" s="33" t="s">
         <v>3067</v>
       </c>
-      <c r="AE20" s="5" t="s">
+      <c r="AE20" s="33" t="s">
         <v>3068</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AF20" s="33">
         <v>-6.86</v>
       </c>
-      <c r="AG20" s="10">
+      <c r="AG20" s="36">
         <v>0.54810434782999995</v>
       </c>
     </row>
@@ -100218,19 +100231,19 @@
       <c r="M21" s="29">
         <v>11.928599999999999</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="37" t="s">
         <v>3177</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="33" t="s">
         <v>3134</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="33" t="s">
         <v>3113</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="33">
         <v>4.1399999999999997</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="36">
         <v>0.81997142857000005</v>
       </c>
       <c r="V21" s="28" t="s">
@@ -100251,33 +100264,33 @@
       <c r="AA21" s="29">
         <v>1.2210482759000001</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AC21" s="37" t="s">
         <v>3203</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AD21" s="33" t="s">
         <v>3069</v>
       </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AE21" s="33" t="s">
         <v>3070</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AF21" s="33">
         <v>-8.82</v>
       </c>
-      <c r="AG21" s="10">
+      <c r="AG21" s="36">
         <v>0.28208059700999999</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="33" t="s">
         <v>849</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="33" t="s">
         <v>3030</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="34">
         <v>14.7</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="35">
         <v>0.57717711171999997</v>
       </c>
       <c r="I22" s="27" t="s">
@@ -100295,19 +100308,19 @@
       <c r="M22" s="29">
         <v>28.01078</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="37" t="s">
         <v>3178</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="33" t="s">
         <v>3135</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="33" t="s">
         <v>3115</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="33">
         <v>3.9</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="36">
         <v>2.4587666666999999</v>
       </c>
       <c r="V22" s="28" t="s">
@@ -100330,16 +100343,16 @@
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="33" t="s">
         <v>1106</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="33" t="s">
         <v>1105</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="34">
         <v>-0.85</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="35">
         <v>0.14328319406000001</v>
       </c>
       <c r="V23" s="28" t="s">
@@ -100362,72 +100375,72 @@
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="34">
         <v>17.75</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="35">
         <v>0.93655999999999995</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="34">
         <v>23.88</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="35">
         <v>0.51631852986000004</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="34">
         <v>24.07</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="35">
         <v>0.97709999999999997</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="33" t="s">
         <v>777</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="34">
         <v>17.3</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="35">
         <v>1.1429386590999999</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="33" t="s">
         <v>813</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="34">
         <v>-3.64</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="35">
         <v>0.42792000000000002</v>
       </c>
     </row>
@@ -100446,16 +100459,16 @@
       </c>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="34">
         <v>19.04</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="35">
         <v>0.27508757062</v>
       </c>
     </row>
@@ -100474,44 +100487,44 @@
       </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="34">
         <v>13.67</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="35">
         <v>0.57655873926000001</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="33" t="s">
         <v>1052</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="33" t="s">
         <v>1050</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="34">
         <v>-2.7</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="35">
         <v>0.71834310850000005</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="33" t="s">
         <v>885</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="34">
         <v>-7.74</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="35">
         <v>0.59600301204999995</v>
       </c>
     </row>
@@ -100530,58 +100543,58 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="33" t="s">
         <v>1075</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="33" t="s">
         <v>1073</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="34">
         <v>-17.59</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="35">
         <v>1.8755320417000001</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="33" t="s">
         <v>837</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="33" t="s">
         <v>835</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="34">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="35">
         <v>0.44295000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="34">
         <v>-11.05</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="35">
         <v>0.21929721816</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="33" t="s">
         <v>1021</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="33" t="s">
         <v>1019</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="34">
         <v>-5.15</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="35">
         <v>0.94717138598999995</v>
       </c>
     </row>
@@ -100600,730 +100613,730 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="33" t="s">
         <v>999</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="34">
         <v>3.33</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="35">
         <v>0.99941142856999998</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="34">
         <v>-4.3899999999999997</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="35">
         <v>1.7748101644000001</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="34">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="35">
         <v>1.4490225564000001</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="34">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="35">
         <v>1.4490225564000001</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="33" t="s">
         <v>1090</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="33" t="s">
         <v>1088</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="34">
         <v>1.7</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="35">
         <v>0.69109144543000001</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="33" t="s">
         <v>1736</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="33" t="s">
         <v>1734</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="33">
         <v>16.96</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="36">
         <v>3.9434833333000001</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="33" t="s">
         <v>1739</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="33" t="s">
         <v>1737</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="33">
         <v>17.73</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="36">
         <v>4.5366076922999996</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="33" t="s">
         <v>1742</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="33" t="s">
         <v>1740</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="33">
         <v>18.18</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="36">
         <v>2.8574083333</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="33" t="s">
         <v>1858</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="33" t="s">
         <v>1856</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="33">
         <v>17.690000000000001</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="36">
         <v>4.0138571429000001</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="33" t="s">
         <v>1885</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="33" t="s">
         <v>1883</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="33">
         <v>17.96</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="36">
         <v>1.3965074073999999</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="33" t="s">
         <v>1909</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="33" t="s">
         <v>1907</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="33">
         <v>17.32</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="36">
         <v>2.5775846154000002</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="33" t="s">
         <v>1934</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="33" t="s">
         <v>1932</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="33">
         <v>18.16</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="36">
         <v>6.2535307692000002</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="33" t="s">
         <v>2792</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="33" t="s">
         <v>2790</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="33">
         <v>14.55</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="36">
         <v>0.56331076923000001</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="33" t="s">
         <v>2795</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="33" t="s">
         <v>2793</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="33">
         <v>-4.2300000000000004</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="36">
         <v>0.31221449275000002</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="33" t="s">
         <v>2798</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="33" t="s">
         <v>2796</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="33">
         <v>5.56</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="36">
         <v>0.31637313433000003</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="33" t="s">
         <v>2801</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="33" t="s">
         <v>2799</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="33">
         <v>10.45</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="36">
         <v>0.31042343750000001</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="33" t="s">
         <v>2804</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="33" t="s">
         <v>2802</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="33">
         <v>11.41</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="36">
         <v>0.26587647059000002</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="33" t="s">
         <v>2807</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="33" t="s">
         <v>2805</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="33">
         <v>8.33</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="36">
         <v>0.37698769231000001</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="33" t="s">
         <v>2810</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="33" t="s">
         <v>2808</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="33">
         <v>12.63</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="36">
         <v>0.25321904762000003</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="33" t="s">
         <v>2813</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="33" t="s">
         <v>2811</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="33">
         <v>14.1</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="36">
         <v>0.23292424242000001</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="33" t="s">
         <v>2816</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="33" t="s">
         <v>2814</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="33">
         <v>16.07</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="36">
         <v>0.21834848485</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="33" t="s">
         <v>2819</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="33" t="s">
         <v>2817</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="33">
         <v>12.41</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="36">
         <v>1.1710394737000001</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="33" t="s">
         <v>2820</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="33" t="s">
         <v>1693</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="33">
         <v>19.940000000000001</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="36">
         <v>1.2611482142999999</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="33" t="s">
         <v>2821</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="33" t="s">
         <v>1862</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="33">
         <v>14.22</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="36">
         <v>0.90474716981000003</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="33" t="s">
         <v>2824</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="33" t="s">
         <v>2822</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="33">
         <v>15.94</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="36">
         <v>0.95193090909</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="33" t="s">
         <v>2827</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="33" t="s">
         <v>2825</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="33">
         <v>15.81</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="36">
         <v>1.0434464286</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="33" t="s">
         <v>2831</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="33" t="s">
         <v>1544</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="33">
         <v>17.739999999999998</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="36">
         <v>0.89283461537999997</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="33" t="s">
         <v>2832</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="33" t="s">
         <v>2160</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="33">
         <v>17.72</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="36">
         <v>0.78268301887000002</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="33" t="s">
         <v>2833</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="33" t="s">
         <v>2135</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="33">
         <v>22.56</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="36">
         <v>0.7349</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="33" t="s">
         <v>2836</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="33" t="s">
         <v>2834</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="33">
         <v>9.52</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="36">
         <v>1.4308945454999999</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="33" t="s">
         <v>2839</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="33" t="s">
         <v>2837</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="33">
         <v>12.53</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="36">
         <v>0.43089253730999999</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="33" t="s">
         <v>2842</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="33" t="s">
         <v>2840</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="33">
         <v>18.100000000000001</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="36">
         <v>0.64484375000000005</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="33" t="s">
         <v>2845</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="33" t="s">
         <v>2843</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="33">
         <v>6</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="36">
         <v>1.3122254545000001</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="33" t="s">
         <v>2847</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="33" t="s">
         <v>2846</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="33">
         <v>13.98</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="36">
         <v>0.44160425532000003</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="33" t="s">
         <v>2851</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="33" t="s">
         <v>2850</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="33">
         <v>16.100000000000001</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="36">
         <v>2.6024615385000002E-2</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="33" t="s">
         <v>2855</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="33" t="s">
         <v>2854</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="33">
         <v>15.36</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="36">
         <v>0.10367936508</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="33" t="s">
         <v>2859</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="33" t="s">
         <v>2858</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="33">
         <v>-11.91</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="36">
         <v>0.24570925926000001</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="33" t="s">
         <v>2863</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="33" t="s">
         <v>2862</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="33">
         <v>12.59</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="36">
         <v>0.81031428570999997</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="33" t="s">
         <v>2867</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="33" t="s">
         <v>2866</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="33">
         <v>14.96</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="36">
         <v>0.15928115942000001</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="33" t="s">
         <v>2871</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="33" t="s">
         <v>2870</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="33">
         <v>6.69</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="36">
         <v>0.64622800000000002</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="33" t="s">
         <v>2875</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="33" t="s">
         <v>2874</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="33">
         <v>14.21</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="36">
         <v>0.1498030303</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="33" t="s">
         <v>2879</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="33" t="s">
         <v>2878</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="33">
         <v>13.96</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="36">
         <v>0.18332916666999999</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="33" t="s">
         <v>2883</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="33" t="s">
         <v>2882</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="33">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="36">
         <v>0.43907111111000002</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="33" t="s">
         <v>2887</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="33" t="s">
         <v>2886</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="33">
         <v>10.18</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="36">
         <v>0.38642592593000002</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="33" t="s">
         <v>2891</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="33" t="s">
         <v>2890</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="33">
         <v>10.88</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="36">
         <v>0.33329811321000002</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="33" t="s">
         <v>2895</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="33" t="s">
         <v>2894</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="33">
         <v>19.87</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="36">
         <v>3.5712359551000002E-2</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="33" t="s">
         <v>2899</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="33" t="s">
         <v>2898</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="33">
         <v>16.920000000000002</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="36">
         <v>0.11409555556000001</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="33" t="s">
         <v>2903</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="33" t="s">
         <v>2902</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="33">
         <v>19.23</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="36">
         <v>0.34762222222</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="33" t="s">
         <v>2907</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="33" t="s">
         <v>2906</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="33">
         <v>12.29</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="36">
         <v>0.53469090909000005</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="33" t="s">
         <v>2911</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="33" t="s">
         <v>2910</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="33">
         <v>10.15</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="36">
         <v>0.43768000000000001</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="33" t="s">
         <v>2915</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="33" t="s">
         <v>2914</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="33">
         <v>9.0500000000000007</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="36">
         <v>7.3041666667000002E-2</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="33" t="s">
         <v>2919</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="33" t="s">
         <v>2918</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="33">
         <v>10.119999999999999</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="36">
         <v>0.28191785714000001</v>
       </c>
     </row>
@@ -101356,16 +101369,16 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="33" t="s">
         <v>2931</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="33" t="s">
         <v>2930</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="33">
         <v>6.55</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="36">
         <v>0.49904318182000001</v>
       </c>
     </row>
@@ -101398,44 +101411,44 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="33" t="s">
         <v>2946</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="33" t="s">
         <v>2945</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="33">
         <v>-1.86</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="36">
         <v>0.23762183908000001</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="33" t="s">
         <v>2950</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="33" t="s">
         <v>2949</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="33">
         <v>5.43</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="36">
         <v>0.27808620690000002</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="33" t="s">
         <v>2954</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="33" t="s">
         <v>2953</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="33">
         <v>10.119999999999999</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="36">
         <v>0.20163406592999999</v>
       </c>
     </row>
@@ -101454,30 +101467,30 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="33" t="s">
         <v>2962</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="33" t="s">
         <v>2961</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="33">
         <v>15.53</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="36">
         <v>0.31101630434999999</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="33" t="s">
         <v>2966</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="33" t="s">
         <v>2965</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="33">
         <v>17.86</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="36">
         <v>0.35760434783</v>
       </c>
     </row>
